--- a/src/main/resources/excelData/testCase_001_Data.xlsx
+++ b/src/main/resources/excelData/testCase_001_Data.xlsx
@@ -16,7 +16,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
+  <si>
+    <t>接口名稱</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
   <si>
     <t>/api/login</t>
   </si>
@@ -65,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -88,7 +97,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,7 +105,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,6 +187,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -125,23 +202,23 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,74 +231,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -232,13 +241,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -250,169 +415,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +432,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -441,7 +489,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -462,21 +519,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -490,39 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -531,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,16 +552,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,115 +570,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1011,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1019,7 +1028,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -1028,115 +1037,126 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="eve.holt@reqres.in"/>
-    <hyperlink ref="B2" r:id="rId2" display="1eve.holt@reqres.in" tooltip="mailto:1eve.holt@reqres.in"/>
-    <hyperlink ref="B3" r:id="rId1" display="eve.holt@reqres.in" tooltip="mailto:eve.holt@reqres.in"/>
-    <hyperlink ref="B4" r:id="rId3" display="eve.holt@reqres.in1" tooltip="mailto:eve.holt@reqres.in1"/>
-    <hyperlink ref="B5" r:id="rId1" display="eve.holt@reqres.in" tooltip="mailto:eve.holt@reqres.in"/>
+    <hyperlink ref="B2" r:id="rId1" display="eve.holt@reqres.in"/>
+    <hyperlink ref="B3" r:id="rId2" display="1eve.holt@reqres.in" tooltip="mailto:1eve.holt@reqres.in"/>
+    <hyperlink ref="B4" r:id="rId1" display="eve.holt@reqres.in" tooltip="mailto:eve.holt@reqres.in"/>
+    <hyperlink ref="B5" r:id="rId3" display="eve.holt@reqres.in1" tooltip="mailto:eve.holt@reqres.in1"/>
     <hyperlink ref="B6" r:id="rId1" display="eve.holt@reqres.in" tooltip="mailto:eve.holt@reqres.in"/>
     <hyperlink ref="B7" r:id="rId1" display="eve.holt@reqres.in" tooltip="mailto:eve.holt@reqres.in"/>
-    <hyperlink ref="B8" r:id="rId4" display="eve.holt@reqres.in01" tooltip="mailto:eve.holt@reqres.in01"/>
-    <hyperlink ref="B9" r:id="rId5" display="eve.holt@reqres.in02" tooltip="mailto:eve.holt@reqres.in02"/>
-    <hyperlink ref="B10" r:id="rId6" display="eve.holt@reqres.in03" tooltip="mailto:eve.holt@reqres.in03"/>
+    <hyperlink ref="B8" r:id="rId1" display="eve.holt@reqres.in" tooltip="mailto:eve.holt@reqres.in"/>
+    <hyperlink ref="B9" r:id="rId4" display="eve.holt@reqres.in01" tooltip="mailto:eve.holt@reqres.in01"/>
+    <hyperlink ref="B10" r:id="rId5" display="eve.holt@reqres.in02" tooltip="mailto:eve.holt@reqres.in02"/>
+    <hyperlink ref="B11" r:id="rId6" display="eve.holt@reqres.in03" tooltip="mailto:eve.holt@reqres.in03"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1159,7 +1179,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1184,7 +1204,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
